--- a/Error_NAO.xlsx
+++ b/Error_NAO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Distancia</t>
   </si>
@@ -40,14 +40,28 @@
   <si>
     <t>Desplazamiento</t>
   </si>
+  <si>
+    <t>PROMEDIOS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,11 +88,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,44 +375,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E6"/>
+  <dimension ref="B5:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <f>R7-Q7</f>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E14" si="0">D8-C8</f>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L14" si="1">K8-J8</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S14" si="2">R8-Q8</f>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>35</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>46</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="R10">
+        <v>46</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>58</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>58</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>70</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>70</v>
+      </c>
+      <c r="R13">
+        <v>81</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>92</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>80</v>
+      </c>
+      <c r="R14">
+        <v>92</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4">
+        <f>AVERAGE(D7,K7,R7)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="L23" s="4">
+        <f>K23-J23</f>
+        <v>2.3333333333333339</v>
+      </c>
+      <c r="M23" s="4">
+        <f>AVERAGE(F7,M7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24:K30" si="3">AVERAGE(D8,K8,R8)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:L30" si="4">K24-J24</f>
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" ref="M24:M30" si="5">AVERAGE(F8,M8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="3"/>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="4"/>
+        <v>4.6666666666666643</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>70</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="3"/>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="4"/>
+        <v>11.333333333333329</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>80</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="5">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Error_NAO.xlsx
+++ b/Error_NAO.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="8">
   <si>
     <t>Distancia</t>
   </si>
@@ -46,12 +49,15 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>Grados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +69,22 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,21 +107,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:M30"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,27 +469,27 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
@@ -867,23 +933,23 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="J21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="J21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" t="s">
         <v>4</v>
       </c>
@@ -909,15 +975,15 @@
       <c r="J23">
         <v>10</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f>AVERAGE(D7,K7,R7)</f>
         <v>12.333333333333334</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <f>K23-J23</f>
         <v>2.3333333333333339</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <f>AVERAGE(F7,M7)</f>
         <v>3</v>
       </c>
@@ -929,15 +995,15 @@
       <c r="J24">
         <v>20</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" ref="K24:K30" si="3">AVERAGE(D8,K8,R8)</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <f t="shared" ref="L24:L30" si="4">K24-J24</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <f t="shared" ref="M24:M30" si="5">AVERAGE(F8,M8)</f>
         <v>3</v>
       </c>
@@ -949,15 +1015,15 @@
       <c r="J25">
         <v>30</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="3"/>
         <v>34.666666666666664</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="4"/>
         <v>4.6666666666666643</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -969,15 +1035,15 @@
       <c r="J26">
         <v>40</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -989,15 +1055,15 @@
       <c r="J27">
         <v>50</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -1009,15 +1075,15 @@
       <c r="J28">
         <v>60</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -1029,15 +1095,15 @@
       <c r="J29">
         <v>70</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="3"/>
         <v>81.333333333333329</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <f t="shared" si="4"/>
         <v>11.333333333333329</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
@@ -1049,15 +1115,15 @@
       <c r="J30">
         <v>80</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -1071,5 +1137,1712 @@
     <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K57"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E16" si="0">D8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <f>G8*H7/G7</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>AVERAGE(D7,D18,D29,D40,D51)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>J14-I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:J20" si="1">AVERAGE(D8,D19,D30,D41,D52)</f>
+        <v>16.2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:K20" si="2">J15-I15</f>
+        <v>1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999972</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>45.6</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="3">D19-C19</f>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>75</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999943</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>96.4</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000057</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>97</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>D29-C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E35" si="4">D30-C30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>79</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>D40-C40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E46" si="5">D41-C41</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>75</v>
+      </c>
+      <c r="D45">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>120</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>D51-C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E57" si="6">D52-C52</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>75</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C49:E49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-15</v>
+      </c>
+      <c r="D8">
+        <v>-14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E16" si="0">D8-C8</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <f>G8*H7/G7</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-30</v>
+      </c>
+      <c r="D9">
+        <v>-32</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-45</v>
+      </c>
+      <c r="D10">
+        <v>-40</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-60</v>
+      </c>
+      <c r="D11">
+        <v>-55</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>-75</v>
+      </c>
+      <c r="D12">
+        <v>-70</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>-90</v>
+      </c>
+      <c r="D13">
+        <v>-80</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>AVERAGE(D7,D18,D29,D40,D51)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>J14-I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>-15</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:J20" si="1">AVERAGE(D8,D19,D30,D41,D52)</f>
+        <v>-11.8</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" ref="K15:K20" si="2">J15-I15</f>
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>-30</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>-25.6</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>-45</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7999999999999972</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>-60</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>-54.6</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>-15</v>
+      </c>
+      <c r="D19">
+        <v>-10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="3">D19-C19</f>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>-75</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>-70.8</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000028</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>-30</v>
+      </c>
+      <c r="D20">
+        <v>-25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>-90</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5999999999999943</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>-45</v>
+      </c>
+      <c r="D21">
+        <v>-40</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>-60</v>
+      </c>
+      <c r="D22">
+        <v>-50</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>-75</v>
+      </c>
+      <c r="D23">
+        <v>-70</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>-90</v>
+      </c>
+      <c r="D24">
+        <v>-80</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>D29-C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>-15</v>
+      </c>
+      <c r="D30">
+        <v>-12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E35" si="4">D30-C30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>-30</v>
+      </c>
+      <c r="D31">
+        <v>-26</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>-45</v>
+      </c>
+      <c r="D32">
+        <v>-43</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>-60</v>
+      </c>
+      <c r="D33">
+        <v>-58</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>-75</v>
+      </c>
+      <c r="D34">
+        <v>-72</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>-90</v>
+      </c>
+      <c r="D35">
+        <v>-85</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>D40-C40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>-15</v>
+      </c>
+      <c r="D41">
+        <v>-13</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E46" si="5">D41-C41</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>-30</v>
+      </c>
+      <c r="D42">
+        <v>-25</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>-45</v>
+      </c>
+      <c r="D43">
+        <v>-43</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>-60</v>
+      </c>
+      <c r="D44">
+        <v>-57</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>-75</v>
+      </c>
+      <c r="D45">
+        <v>-70</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>-90</v>
+      </c>
+      <c r="D46">
+        <v>-80</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>D51-C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>-15</v>
+      </c>
+      <c r="D52">
+        <v>-10</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E57" si="6">D52-C52</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>-30</v>
+      </c>
+      <c r="D53">
+        <v>-20</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>-45</v>
+      </c>
+      <c r="D54">
+        <v>-40</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-60</v>
+      </c>
+      <c r="D55">
+        <v>-53</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>-75</v>
+      </c>
+      <c r="D56">
+        <v>-72</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>-90</v>
+      </c>
+      <c r="D57">
+        <v>-82</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C38:E38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-11.8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-30</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-25.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.3999999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-45</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-41.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.7999999999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-60</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-54.6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-70.8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.2000000000000028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-90</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.5999999999999943</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D7">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Error_NAO.xlsx
+++ b/Error_NAO.xlsx
@@ -107,8 +107,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,7 +149,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="29">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -155,6 +161,9 @@
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -166,6 +175,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1213,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E16" si="0">D8-C8</f>
+        <f t="shared" ref="E8:E13" si="0">D8-C8</f>
         <v>0</v>
       </c>
       <c r="G8">
@@ -1924,12 +1936,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C49:E49"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C49:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1940,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B8" zoomScale="150" workbookViewId="0">
       <selection activeCell="H14" sqref="H14:K20"/>
     </sheetView>
   </sheetViews>
@@ -1948,7 +1960,7 @@
   <cols>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
@@ -2005,18 +2017,18 @@
         <v>-15</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E16" si="0">D8-C8</f>
-        <v>1</v>
+        <f t="shared" ref="E8:E13" si="0">D8-C8</f>
+        <v>-7</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <f>G8*H7/G7</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -2027,11 +2039,11 @@
         <v>-30</v>
       </c>
       <c r="D9">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -2042,11 +2054,11 @@
         <v>-45</v>
       </c>
       <c r="D10">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2057,11 +2069,11 @@
         <v>-60</v>
       </c>
       <c r="D11">
-        <v>-55</v>
+        <v>-69</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -2072,11 +2084,11 @@
         <v>-75</v>
       </c>
       <c r="D12">
-        <v>-70</v>
+        <v>-89</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-14</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>7</v>
@@ -2092,11 +2104,11 @@
         <v>-90</v>
       </c>
       <c r="D13">
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -2136,11 +2148,11 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" ref="J15:J20" si="1">AVERAGE(D8,D19,D30,D41,D52)</f>
-        <v>-11.8</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ref="K15:K20" si="2">J15-I15</f>
-        <v>3.1999999999999993</v>
+        <v>-4.6000000000000014</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -2157,11 +2169,11 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>-25.6</v>
+        <v>-40</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>4.3999999999999986</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -2185,11 +2197,11 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>-41.2</v>
+        <v>-50.4</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>3.7999999999999972</v>
+        <v>-5.3999999999999986</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -2214,11 +2226,11 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>-54.6</v>
+        <v>-73</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>5.3999999999999986</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2229,11 +2241,11 @@
         <v>-15</v>
       </c>
       <c r="D19">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E24" si="3">D19-C19</f>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2243,11 +2255,11 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>-70.8</v>
+        <v>-87</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="2"/>
-        <v>4.2000000000000028</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2258,11 +2270,11 @@
         <v>-30</v>
       </c>
       <c r="D20">
-        <v>-25</v>
+        <v>-41</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -2272,11 +2284,11 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>-81.400000000000006</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>8.5999999999999943</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -2287,11 +2299,11 @@
         <v>-45</v>
       </c>
       <c r="D21">
-        <v>-40</v>
+        <v>-48</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -2302,11 +2314,11 @@
         <v>-60</v>
       </c>
       <c r="D22">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -2317,11 +2329,11 @@
         <v>-75</v>
       </c>
       <c r="D23">
-        <v>-70</v>
+        <v>-85</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -2332,11 +2344,11 @@
         <v>-90</v>
       </c>
       <c r="D24">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -2383,11 +2395,11 @@
         <v>-15</v>
       </c>
       <c r="D30">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E35" si="4">D30-C30</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -2398,11 +2410,11 @@
         <v>-30</v>
       </c>
       <c r="D31">
-        <v>-26</v>
+        <v>-39</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -2413,11 +2425,11 @@
         <v>-45</v>
       </c>
       <c r="D32">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -2428,11 +2440,11 @@
         <v>-60</v>
       </c>
       <c r="D33">
-        <v>-58</v>
+        <v>-73</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -2443,11 +2455,11 @@
         <v>-75</v>
       </c>
       <c r="D34">
-        <v>-72</v>
+        <v>-88</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -2458,11 +2470,11 @@
         <v>-90</v>
       </c>
       <c r="D35">
-        <v>-85</v>
+        <v>-105</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -2509,11 +2521,11 @@
         <v>-15</v>
       </c>
       <c r="D41">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:E46" si="5">D41-C41</f>
-        <v>2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -2524,11 +2536,11 @@
         <v>-30</v>
       </c>
       <c r="D42">
-        <v>-25</v>
+        <v>-41</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -2539,11 +2551,11 @@
         <v>-45</v>
       </c>
       <c r="D43">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="E43">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -2554,11 +2566,11 @@
         <v>-60</v>
       </c>
       <c r="D44">
-        <v>-57</v>
+        <v>-75</v>
       </c>
       <c r="E44">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -2569,11 +2581,11 @@
         <v>-75</v>
       </c>
       <c r="D45">
-        <v>-70</v>
+        <v>-85</v>
       </c>
       <c r="E45">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -2584,11 +2596,11 @@
         <v>-90</v>
       </c>
       <c r="D46">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="E46">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -2635,11 +2647,11 @@
         <v>-15</v>
       </c>
       <c r="D52">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="E52">
         <f t="shared" ref="E52:E57" si="6">D52-C52</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -2650,11 +2662,11 @@
         <v>-30</v>
       </c>
       <c r="D53">
-        <v>-20</v>
+        <v>-39</v>
       </c>
       <c r="E53">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -2665,11 +2677,11 @@
         <v>-45</v>
       </c>
       <c r="D54">
-        <v>-40</v>
+        <v>-48</v>
       </c>
       <c r="E54">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -2680,11 +2692,11 @@
         <v>-60</v>
       </c>
       <c r="D55">
-        <v>-53</v>
+        <v>-73</v>
       </c>
       <c r="E55">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -2695,11 +2707,11 @@
         <v>-75</v>
       </c>
       <c r="D56">
-        <v>-72</v>
+        <v>-88</v>
       </c>
       <c r="E56">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -2710,11 +2722,11 @@
         <v>-90</v>
       </c>
       <c r="D57">
-        <v>-82</v>
+        <v>-105</v>
       </c>
       <c r="E57">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -2727,6 +2739,7 @@
     <mergeCell ref="C38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2745,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="C1" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D1" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-15</v>
+        <v>-75</v>
       </c>
       <c r="C2" s="3">
-        <v>-11.8</v>
+        <v>-87</v>
       </c>
       <c r="D2" s="3">
-        <v>3.1999999999999993</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,13 +2786,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="C3" s="3">
-        <v>-25.6</v>
+        <v>-73</v>
       </c>
       <c r="D3" s="3">
-        <v>4.3999999999999986</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,10 +2803,10 @@
         <v>-45</v>
       </c>
       <c r="C4" s="3">
-        <v>-41.2</v>
+        <v>-50.4</v>
       </c>
       <c r="D4" s="3">
-        <v>3.7999999999999972</v>
+        <v>-5.3999999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2801,13 +2814,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="C5" s="3">
-        <v>-54.6</v>
+        <v>-40</v>
       </c>
       <c r="D5" s="3">
-        <v>5.3999999999999986</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,32 +2828,32 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-75</v>
+        <v>-15</v>
       </c>
       <c r="C6" s="3">
-        <v>-70.8</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>4.2000000000000028</v>
+        <v>-4.6000000000000014</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>-81.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>8.5999999999999943</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:D7">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
